--- a/HTML5 e CSS3 módulo 3 de 5 - 40 HORAS/Desafio 13/Desafio1.xlsx
+++ b/HTML5 e CSS3 módulo 3 de 5 - 40 HORAS/Desafio 13/Desafio1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\1.PROGRAMAÇÃO\HTMLeCSS\HTMLeCSS\HTML5 e CSS3 módulo 3 de 5 - 40 HORAS\Desafio 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3839D1-40D1-4A3D-9F87-653A124996DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7D50A4-28F3-4854-B8D6-E1FAA15D9C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{84F4E7A1-3736-4DD3-A104-C086BAA776E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{84F4E7A1-3736-4DD3-A104-C086BAA776E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
@@ -65,13 +66,64 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Matematica</t>
+  </si>
+  <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Exatas</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Média de Exatas</t>
+  </si>
+  <si>
+    <t>Humanas</t>
+  </si>
+  <si>
+    <t>História</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Média de Humanas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +131,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -189,11 +269,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -206,31 +307,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,62 +649,62 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="2">
         <v>2</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="2">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="4">
         <v>8</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="10">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>10</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="4">
         <v>11</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="10">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
+      <c r="A5" s="8"/>
+      <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="2">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>15</v>
       </c>
     </row>
@@ -630,25 +723,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C78331-1A86-4E32-BAF8-633B99C54BD0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E11" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -660,10 +753,10 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -673,10 +766,10 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -686,16 +779,16 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -706,4 +799,176 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D2C80A-0839-4F19-9C68-090B136E6290}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>